--- a/заказы/статистика филиалы/2023/10,23/18,10,23 КИ/дв 18,10,23 днрсч ответ филиала.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/18,10,23 КИ/дв 18,10,23 днрсч ответ филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\18,10,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\18,10,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08EB44B-359C-4D5A-8F2B-3BEF6B3BC6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA91D8C-2346-4D5D-84E6-B3CDD31A3982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AE$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AC$126</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="164">
   <si>
     <t>Период: 11.10.2023 - 18.10.2023</t>
   </si>
@@ -545,10 +545,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -7389,11 +7393,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AE126"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB27" sqref="AB27"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -7411,30 +7415,29 @@
     <col min="17" max="17" width="10.6640625" style="2" customWidth="1"/>
     <col min="18" max="18" width="7.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="9.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" style="2" customWidth="1"/>
     <col min="21" max="21" width="10.5" style="10"/>
     <col min="22" max="22" width="26.1640625" style="10" customWidth="1"/>
     <col min="23" max="24" width="5.6640625" style="2" customWidth="1"/>
     <col min="25" max="27" width="8.1640625" style="2" customWidth="1"/>
     <col min="28" max="28" width="22.1640625" style="2" customWidth="1"/>
     <col min="29" max="29" width="9.33203125" style="2" customWidth="1"/>
-    <col min="30" max="31" width="1.33203125" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="10.5" style="2"/>
+    <col min="30" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="M2" s="34" t="s">
         <v>154</v>
       </c>
       <c r="N2" s="34"/>
     </row>
-    <row r="3" spans="1:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -7514,14 +7517,8 @@
       <c r="AC3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AD3" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="4" spans="1:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -7581,10 +7578,8 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="10"/>
     </row>
-    <row r="5" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7671,16 +7666,8 @@
         <f>SUM(AC6:AC256)</f>
         <v>11305.462000000001</v>
       </c>
-      <c r="AD5" s="15">
-        <f>SUM(AD6:AD256)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="15">
-        <f>SUM(AE6:AE256)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -7754,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -7834,7 +7821,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -7902,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -7979,7 +7966,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -8051,7 +8038,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -8121,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -8195,7 +8182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -8265,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -8344,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -8416,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -16654,7 +16641,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AE126" xr:uid="{6AF24A22-D7A9-41D2-AEAD-1897E91407C6}"/>
+  <autoFilter ref="A3:AC126" xr:uid="{6AF24A22-D7A9-41D2-AEAD-1897E91407C6}"/>
   <mergeCells count="1">
     <mergeCell ref="M2:N2"/>
   </mergeCells>
